--- a/btsAccountsFailTest1.xlsx
+++ b/btsAccountsFailTest1.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Production" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Production" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>7-8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -30,9 +31,6 @@
   </si>
   <si>
     <t>MLBPassword</t>
-  </si>
-  <si>
-    <t>NOT DONE</t>
   </si>
   <si>
     <t>faiyam.earth.1200@NETORG112903.onmicrosoft.com</t>
@@ -47,9 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,11 +55,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,20 +110,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -119,10 +136,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -278,7 +295,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -287,13 +304,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -303,7 +320,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -312,7 +329,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -321,7 +338,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,12 +348,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -367,7 +384,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -386,7 +403,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -398,59 +415,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1" activeCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.10"/>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-    <col min="4" max="4" width="9.10"/>
-    <col min="5" max="5" width="9.10"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c s="1" r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c s="1" r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c s="1" r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c s="1" r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>